--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="57">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -626,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1069,7 @@
         <v>17.55</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1089,7 @@
         <v>45.63</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1109,7 @@
         <v>57.37</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1129,7 @@
         <v>65.42</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1149,7 @@
         <v>76.61</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1169,7 @@
         <v>88.37</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1189,7 @@
         <v>100.14</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1209,7 @@
         <v>78.29000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1229,7 @@
         <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1249,7 @@
         <v>134.59</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34">
         <v>134.59</v>
@@ -1266,7 +1269,7 @@
         <v>32.3</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1280,7 +1283,7 @@
         <v>31.78</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1294,7 +1297,7 @@
         <v>34.59</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1308,7 +1311,7 @@
         <v>36.85</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1322,7 +1325,7 @@
         <v>31.23</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1336,7 +1339,7 @@
         <v>32.43</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1350,7 +1353,7 @@
         <v>35.36</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1364,7 +1367,7 @@
         <v>36.09</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1378,7 +1381,7 @@
         <v>39.12</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1398,7 +1401,7 @@
         <v>134.59</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44">
         <v>134.59</v>
@@ -1418,7 +1421,7 @@
         <v>32.3</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1432,7 +1435,7 @@
         <v>31.78</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1446,7 +1449,7 @@
         <v>34.59</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1460,7 +1463,7 @@
         <v>36.85</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1474,7 +1477,7 @@
         <v>31.23</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1488,7 +1491,7 @@
         <v>32.43</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1502,7 +1505,7 @@
         <v>35.36</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1516,7 +1519,7 @@
         <v>36.09</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1530,7 +1533,147 @@
         <v>39.12</v>
       </c>
       <c r="F53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>32.3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55">
+        <v>31.78</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>34.59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>36.85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58">
+        <v>31.23</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>32.43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60">
+        <v>35.36</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>36.09</v>
+      </c>
+      <c r="F61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>39.12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
         <v>55</v>
+      </c>
+      <c r="D63">
+        <v>42.3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>24 May -- 30 May 2020</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>99</v>
@@ -600,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -617,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>98.70999999999999</v>
@@ -629,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -637,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>47.57</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -657,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>40.43</v>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -677,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>15.71</v>
@@ -689,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>22.29</v>
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>12.29</v>
@@ -729,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>10.57</v>
@@ -749,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>5.29</v>
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>8.140000000000001</v>
@@ -789,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -797,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>5.43</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>6.86</v>
@@ -829,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -837,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>6.43</v>
@@ -849,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -857,7 +863,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>6.29</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -877,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>4.43</v>
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -897,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -917,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -929,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -937,7 +943,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>7.29</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -957,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -977,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>24.71</v>
@@ -989,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>17.29</v>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1017,7 +1023,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>26.71</v>
@@ -1029,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1037,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>31.14</v>
@@ -1049,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1057,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>51.43</v>
@@ -1069,7 +1075,7 @@
         <v>17.55</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,7 +1083,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>57.14</v>
@@ -1089,7 +1095,7 @@
         <v>45.63</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1097,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>72.56999999999999</v>
@@ -1109,7 +1115,7 @@
         <v>57.37</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>76.86</v>
@@ -1129,7 +1135,7 @@
         <v>65.42</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>87.70999999999999</v>
@@ -1149,7 +1155,7 @@
         <v>76.61</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,7 +1163,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>108.57</v>
@@ -1169,7 +1175,7 @@
         <v>88.37</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>114.86</v>
@@ -1189,7 +1195,7 @@
         <v>100.14</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1197,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>94.70999999999999</v>
@@ -1209,7 +1215,7 @@
         <v>78.29000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1217,7 +1223,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>124.71</v>
@@ -1229,7 +1235,7 @@
         <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1237,7 +1243,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>166</v>
@@ -1249,7 +1255,7 @@
         <v>134.59</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J34">
         <v>134.59</v>
@@ -1263,13 +1269,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>145.43</v>
       </c>
       <c r="D35">
         <v>32.3</v>
       </c>
+      <c r="E35">
+        <v>113.13</v>
+      </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J35">
+        <v>123.86</v>
+      </c>
+      <c r="K35">
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1277,13 +1295,13 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D36">
         <v>31.78</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1291,13 +1309,13 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>34.59</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1305,13 +1323,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>36.85</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1319,13 +1337,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>31.23</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1333,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>32.43</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1347,13 +1365,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>35.36</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1361,13 +1379,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>36.09</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1375,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>39.12</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1389,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>166</v>
@@ -1401,13 +1419,13 @@
         <v>134.59</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J44">
-        <v>134.59</v>
+        <v>127.44</v>
       </c>
       <c r="K44">
-        <v>81.08</v>
+        <v>79.98</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1415,13 +1433,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>145.43</v>
       </c>
       <c r="D45">
         <v>32.3</v>
       </c>
+      <c r="E45">
+        <v>113.13</v>
+      </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J45">
+        <v>123.86</v>
+      </c>
+      <c r="K45">
+        <v>79.43000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1429,13 +1459,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>31.78</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1443,13 +1473,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>34.59</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1457,223 +1487,375 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>36.85</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>31.23</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50">
         <v>32.43</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>35.36</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <v>36.09</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <v>39.12</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C54">
+        <v>145.43</v>
       </c>
       <c r="D54">
         <v>32.3</v>
       </c>
+      <c r="E54">
+        <v>113.13</v>
+      </c>
       <c r="F54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="J54">
+        <v>121.71</v>
+      </c>
+      <c r="K54">
+        <v>79.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D55">
         <v>31.78</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D56">
         <v>34.59</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D57">
         <v>36.85</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D58">
         <v>31.23</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D59">
         <v>32.43</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <v>35.36</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D61">
         <v>36.09</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D62">
         <v>39.12</v>
       </c>
       <c r="F62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
       </c>
       <c r="D63">
         <v>42.3</v>
       </c>
       <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64">
+        <v>31.78</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65">
+        <v>34.59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66">
+        <v>36.85</v>
+      </c>
+      <c r="F66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>31.23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>32.43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69">
+        <v>35.36</v>
+      </c>
+      <c r="F69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>36.09</v>
+      </c>
+      <c r="F70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>39.12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
         <v>56</v>
+      </c>
+      <c r="D72">
+        <v>42.3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73">
+        <v>44.78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>24 May -- 30 May 2020</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>99</v>
@@ -606,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -623,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>98.70999999999999</v>
@@ -635,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>47.57</v>
@@ -655,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>40.43</v>
@@ -675,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>15.71</v>
@@ -695,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>22.29</v>
@@ -715,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>12.29</v>
@@ -735,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>10.57</v>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>5.29</v>
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>8.140000000000001</v>
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>5.43</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>6.86</v>
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>6.43</v>
@@ -855,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>6.29</v>
@@ -875,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4.43</v>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -935,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>7.29</v>
@@ -955,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -975,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>24.71</v>
@@ -995,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>17.29</v>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>26.71</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>31.14</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>51.43</v>
@@ -1075,7 +1081,7 @@
         <v>17.55</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>57.14</v>
@@ -1095,7 +1101,7 @@
         <v>45.63</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>72.56999999999999</v>
@@ -1115,7 +1121,7 @@
         <v>57.37</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>76.86</v>
@@ -1135,7 +1141,7 @@
         <v>65.42</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>87.70999999999999</v>
@@ -1155,7 +1161,7 @@
         <v>76.61</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>108.57</v>
@@ -1175,7 +1181,7 @@
         <v>88.37</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>114.86</v>
@@ -1195,7 +1201,7 @@
         <v>100.14</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>94.70999999999999</v>
@@ -1215,7 +1221,7 @@
         <v>78.29000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1223,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>124.71</v>
@@ -1235,7 +1241,7 @@
         <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1243,25 +1249,25 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D34">
         <v>31.41</v>
       </c>
       <c r="E34">
-        <v>134.59</v>
+        <v>121.45</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J34">
-        <v>134.59</v>
+        <v>121.45</v>
       </c>
       <c r="K34">
-        <v>81.08</v>
+        <v>79.45</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,25 +1275,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D35">
         <v>32.3</v>
       </c>
       <c r="E35">
-        <v>113.13</v>
+        <v>109.7</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J35">
-        <v>123.86</v>
+        <v>115.57</v>
       </c>
       <c r="K35">
-        <v>79.43000000000001</v>
+        <v>78.34999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,13 +1301,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>144.86</v>
       </c>
       <c r="D36">
         <v>31.78</v>
       </c>
+      <c r="E36">
+        <v>113.08</v>
+      </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>114.74</v>
+      </c>
+      <c r="K36">
+        <v>78.26000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,13 +1327,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>133.43</v>
       </c>
       <c r="D37">
         <v>34.59</v>
       </c>
+      <c r="E37">
+        <v>98.83</v>
+      </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <v>110.77</v>
+      </c>
+      <c r="K37">
+        <v>77.20999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1323,13 +1353,13 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>36.85</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1337,13 +1367,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>31.23</v>
       </c>
       <c r="F39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1351,13 +1381,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>32.43</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1365,13 +1395,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>35.36</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1379,13 +1409,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>36.09</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1393,13 +1423,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>39.12</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1407,25 +1437,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D44">
         <v>31.41</v>
       </c>
       <c r="E44">
-        <v>134.59</v>
+        <v>121.45</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J44">
-        <v>127.44</v>
+        <v>112.9</v>
       </c>
       <c r="K44">
-        <v>79.98</v>
+        <v>77.66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1433,25 +1463,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D45">
         <v>32.3</v>
       </c>
       <c r="E45">
-        <v>113.13</v>
+        <v>109.7</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J45">
-        <v>123.86</v>
+        <v>112.37</v>
       </c>
       <c r="K45">
-        <v>79.43000000000001</v>
+        <v>77.59</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1459,13 +1489,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>144.86</v>
       </c>
       <c r="D46">
         <v>31.78</v>
       </c>
+      <c r="E46">
+        <v>113.08</v>
+      </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>112.47</v>
+      </c>
+      <c r="K46">
+        <v>77.66</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1473,13 +1515,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>133.43</v>
       </c>
       <c r="D47">
         <v>34.59</v>
       </c>
+      <c r="E47">
+        <v>98.83</v>
+      </c>
       <c r="F47" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J47">
+        <v>110.77</v>
+      </c>
+      <c r="K47">
+        <v>77.20999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1487,13 +1541,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D48">
         <v>36.85</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1501,13 +1555,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49">
         <v>31.23</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1515,13 +1569,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50">
         <v>32.43</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1529,13 +1583,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51">
         <v>35.36</v>
       </c>
       <c r="F51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1543,13 +1597,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52">
         <v>36.09</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1557,13 +1611,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>39.12</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1571,25 +1625,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C54">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D54">
         <v>32.3</v>
       </c>
       <c r="E54">
-        <v>113.13</v>
+        <v>109.7</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J54">
-        <v>121.71</v>
+        <v>110.65</v>
       </c>
       <c r="K54">
-        <v>79.11</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1597,13 +1651,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C55">
+        <v>144.86</v>
       </c>
       <c r="D55">
         <v>31.78</v>
       </c>
+      <c r="E55">
+        <v>113.08</v>
+      </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>110.89</v>
+      </c>
+      <c r="K55">
+        <v>77.3</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1611,13 +1677,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>133.43</v>
       </c>
       <c r="D56">
         <v>34.59</v>
       </c>
+      <c r="E56">
+        <v>98.83</v>
+      </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <v>109.79</v>
+      </c>
+      <c r="K56">
+        <v>77.01000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1625,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D57">
         <v>36.85</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1639,13 +1717,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D58">
         <v>31.23</v>
       </c>
       <c r="F58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1653,13 +1731,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D59">
         <v>32.43</v>
       </c>
       <c r="F59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1667,13 +1745,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D60">
         <v>35.36</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1681,13 +1759,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61">
         <v>36.09</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1695,13 +1773,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62">
         <v>39.12</v>
       </c>
       <c r="F62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1709,13 +1787,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <v>42.3</v>
       </c>
       <c r="F63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1723,139 +1801,315 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C64">
+        <v>144.86</v>
       </c>
       <c r="D64">
         <v>31.78</v>
       </c>
+      <c r="E64">
+        <v>113.08</v>
+      </c>
       <c r="F64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J64">
+        <v>110.07</v>
+      </c>
+      <c r="K64">
+        <v>77.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="C65">
+        <v>133.43</v>
       </c>
       <c r="D65">
         <v>34.59</v>
       </c>
+      <c r="E65">
+        <v>98.83</v>
+      </c>
       <c r="F65" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J65">
+        <v>109.2</v>
+      </c>
+      <c r="K65">
+        <v>76.86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D66">
         <v>36.85</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D67">
         <v>31.23</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D68">
         <v>32.43</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D69">
         <v>35.36</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D70">
         <v>36.09</v>
       </c>
       <c r="F70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D71">
         <v>39.12</v>
       </c>
       <c r="F71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D72">
         <v>42.3</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D73">
         <v>44.78</v>
       </c>
       <c r="F73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>133.43</v>
+      </c>
+      <c r="D74">
+        <v>25.05</v>
+      </c>
+      <c r="E74">
+        <v>108.38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74">
+        <v>109.15</v>
+      </c>
+      <c r="K74">
+        <v>77.17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>26.03</v>
+      </c>
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76">
+        <v>24.44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77">
+        <v>25.78</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>28.83</v>
+      </c>
+      <c r="F78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>23.36</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80">
+        <v>33.62</v>
+      </c>
+      <c r="F80" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>36.6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
         <v>58</v>
+      </c>
+      <c r="D82">
+        <v>39.31</v>
+      </c>
+      <c r="F82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83">
+        <v>45.34</v>
+      </c>
+      <c r="F83" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1084,7 @@
         <v>17.55</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1104,7 @@
         <v>45.63</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1124,7 @@
         <v>57.37</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1144,7 @@
         <v>65.42</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1164,7 @@
         <v>76.61</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1184,7 @@
         <v>88.37</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1204,7 @@
         <v>100.14</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1224,7 @@
         <v>78.29000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1244,7 @@
         <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1264,7 @@
         <v>121.45</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J34">
         <v>121.45</v>
@@ -1287,7 +1290,7 @@
         <v>109.7</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J35">
         <v>115.57</v>
@@ -1313,7 +1316,7 @@
         <v>113.08</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J36">
         <v>114.74</v>
@@ -1339,7 +1342,7 @@
         <v>98.83</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37">
         <v>110.77</v>
@@ -1359,7 +1362,7 @@
         <v>36.85</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1376,7 @@
         <v>31.23</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1390,7 @@
         <v>32.43</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1404,7 @@
         <v>35.36</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,7 +1418,7 @@
         <v>36.09</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,7 +1432,7 @@
         <v>39.12</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,7 +1452,7 @@
         <v>121.45</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J44">
         <v>112.9</v>
@@ -1475,7 +1478,7 @@
         <v>109.7</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J45">
         <v>112.37</v>
@@ -1501,7 +1504,7 @@
         <v>113.08</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J46">
         <v>112.47</v>
@@ -1527,7 +1530,7 @@
         <v>98.83</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J47">
         <v>110.77</v>
@@ -1547,7 +1550,7 @@
         <v>36.85</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1561,7 +1564,7 @@
         <v>31.23</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1575,7 +1578,7 @@
         <v>32.43</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1589,7 +1592,7 @@
         <v>35.36</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1603,7 +1606,7 @@
         <v>36.09</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1617,7 +1620,7 @@
         <v>39.12</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1637,7 +1640,7 @@
         <v>109.7</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J54">
         <v>110.65</v>
@@ -1663,7 +1666,7 @@
         <v>113.08</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J55">
         <v>110.89</v>
@@ -1689,7 +1692,7 @@
         <v>98.83</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J56">
         <v>109.79</v>
@@ -1709,7 +1712,7 @@
         <v>36.85</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1723,7 +1726,7 @@
         <v>31.23</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1737,7 +1740,7 @@
         <v>32.43</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1751,7 +1754,7 @@
         <v>35.36</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1765,7 +1768,7 @@
         <v>36.09</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1779,7 +1782,7 @@
         <v>39.12</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1793,7 +1796,7 @@
         <v>42.3</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1813,7 +1816,7 @@
         <v>113.08</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J64">
         <v>110.07</v>
@@ -1839,7 +1842,7 @@
         <v>98.83</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J65">
         <v>109.2</v>
@@ -1859,7 +1862,7 @@
         <v>36.85</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1873,7 +1876,7 @@
         <v>31.23</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1887,7 +1890,7 @@
         <v>32.43</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1901,7 +1904,7 @@
         <v>35.36</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1915,7 +1918,7 @@
         <v>36.09</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1929,7 +1932,7 @@
         <v>39.12</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1943,7 +1946,7 @@
         <v>42.3</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1957,7 +1960,7 @@
         <v>44.78</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1977,7 +1980,7 @@
         <v>108.38</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J74">
         <v>109.15</v>
@@ -1997,7 +2000,7 @@
         <v>26.03</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2011,7 +2014,7 @@
         <v>24.44</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2025,7 +2028,7 @@
         <v>25.78</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2039,7 +2042,7 @@
         <v>28.83</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2053,7 +2056,7 @@
         <v>23.36</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2067,7 +2070,7 @@
         <v>33.62</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2081,7 +2084,7 @@
         <v>36.6</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2095,7 +2098,7 @@
         <v>39.31</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2109,7 +2112,147 @@
         <v>45.34</v>
       </c>
       <c r="F83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84">
+        <v>26.03</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85">
+        <v>24.44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86">
+        <v>25.78</v>
+      </c>
+      <c r="F86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87">
+        <v>28.83</v>
+      </c>
+      <c r="F87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88">
+        <v>23.36</v>
+      </c>
+      <c r="F88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <v>33.62</v>
+      </c>
+      <c r="F89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90">
+        <v>36.6</v>
+      </c>
+      <c r="F90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91">
+        <v>39.31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92">
+        <v>45.34</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
         <v>60</v>
+      </c>
+      <c r="D93">
+        <v>52.14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>24 May -- 30 May 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>99</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>98.70999999999999</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>47.57</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>40.43</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>15.71</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>22.29</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>12.29</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>10.57</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>5.29</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>8.140000000000001</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>5.43</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>6.86</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>6.43</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>6.29</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>4.43</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>7.29</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>24.71</v>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>17.29</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>26.71</v>
@@ -1044,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>31.14</v>
@@ -1064,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>51.43</v>
@@ -1084,7 +1090,7 @@
         <v>17.55</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>57.14</v>
@@ -1104,7 +1110,7 @@
         <v>45.63</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>72.56999999999999</v>
@@ -1124,7 +1130,7 @@
         <v>57.37</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>76.86</v>
@@ -1144,7 +1150,7 @@
         <v>65.42</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>87.70999999999999</v>
@@ -1164,7 +1170,7 @@
         <v>76.61</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>108.57</v>
@@ -1184,7 +1190,7 @@
         <v>88.37</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>114.86</v>
@@ -1204,7 +1210,7 @@
         <v>100.14</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>94.70999999999999</v>
@@ -1224,7 +1230,7 @@
         <v>78.29000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>124.71</v>
@@ -1244,7 +1250,7 @@
         <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>152.86</v>
@@ -1264,7 +1270,7 @@
         <v>121.45</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J34">
         <v>121.45</v>
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>142</v>
@@ -1290,7 +1296,7 @@
         <v>109.7</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J35">
         <v>115.57</v>
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>144.86</v>
@@ -1316,7 +1322,7 @@
         <v>113.08</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J36">
         <v>114.74</v>
@@ -1330,25 +1336,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D37">
         <v>34.59</v>
       </c>
       <c r="E37">
-        <v>98.83</v>
+        <v>103.41</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J37">
-        <v>110.77</v>
+        <v>111.91</v>
       </c>
       <c r="K37">
-        <v>77.20999999999999</v>
+        <v>77.43000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1356,13 +1362,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>106</v>
       </c>
       <c r="D38">
         <v>36.85</v>
       </c>
+      <c r="E38">
+        <v>69.15000000000001</v>
+      </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J38">
+        <v>103.36</v>
+      </c>
+      <c r="K38">
+        <v>74.98999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,13 +1388,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>76.86</v>
       </c>
       <c r="D39">
         <v>31.23</v>
       </c>
+      <c r="E39">
+        <v>45.63</v>
+      </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J39">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="K39">
+        <v>72.38</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,13 +1414,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>32.43</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1398,13 +1428,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>35.36</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,13 +1442,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>36.09</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1426,13 +1456,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>39.12</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1440,7 +1470,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>152.86</v>
@@ -1452,13 +1482,13 @@
         <v>121.45</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44">
-        <v>112.9</v>
+        <v>97.69</v>
       </c>
       <c r="K44">
-        <v>77.66</v>
+        <v>73.39</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1466,7 +1496,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45">
         <v>142</v>
@@ -1478,13 +1508,13 @@
         <v>109.7</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J45">
-        <v>112.37</v>
+        <v>99.2</v>
       </c>
       <c r="K45">
-        <v>77.59</v>
+        <v>73.88</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1492,7 +1522,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <v>144.86</v>
@@ -1504,13 +1534,13 @@
         <v>113.08</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J46">
-        <v>112.47</v>
+        <v>100.74</v>
       </c>
       <c r="K46">
-        <v>77.66</v>
+        <v>74.34</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1518,25 +1548,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D47">
         <v>34.59</v>
       </c>
       <c r="E47">
-        <v>98.83</v>
+        <v>103.41</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J47">
-        <v>110.77</v>
+        <v>101</v>
       </c>
       <c r="K47">
-        <v>77.20999999999999</v>
+        <v>74.40000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1544,13 +1574,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>106</v>
       </c>
       <c r="D48">
         <v>36.85</v>
       </c>
+      <c r="E48">
+        <v>69.15000000000001</v>
+      </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J48">
+        <v>98.11</v>
+      </c>
+      <c r="K48">
+        <v>73.56999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1558,13 +1600,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>76.86</v>
       </c>
       <c r="D49">
         <v>31.23</v>
       </c>
+      <c r="E49">
+        <v>45.63</v>
+      </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J49">
+        <v>93.73999999999999</v>
+      </c>
+      <c r="K49">
+        <v>72.38</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1572,13 +1626,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>32.43</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1586,13 +1640,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>35.36</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1600,13 +1654,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>36.09</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1614,13 +1668,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>39.12</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1628,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54">
         <v>142</v>
@@ -1640,13 +1694,13 @@
         <v>109.7</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J54">
-        <v>110.65</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="K54">
-        <v>77.22</v>
+        <v>72.76000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1654,7 +1708,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55">
         <v>144.86</v>
@@ -1666,13 +1720,13 @@
         <v>113.08</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J55">
-        <v>110.89</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="K55">
-        <v>77.3</v>
+        <v>73.14</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1680,25 +1734,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D56">
         <v>34.59</v>
       </c>
       <c r="E56">
-        <v>98.83</v>
+        <v>103.41</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J56">
-        <v>109.79</v>
+        <v>96.73</v>
       </c>
       <c r="K56">
-        <v>77.01000000000001</v>
+        <v>73.26000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1706,13 +1760,25 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>106</v>
       </c>
       <c r="D57">
         <v>36.85</v>
       </c>
+      <c r="E57">
+        <v>69.15000000000001</v>
+      </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J57">
+        <v>95.01000000000001</v>
+      </c>
+      <c r="K57">
+        <v>72.76000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1720,13 +1786,25 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>76.86</v>
       </c>
       <c r="D58">
         <v>31.23</v>
       </c>
+      <c r="E58">
+        <v>45.63</v>
+      </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J58">
+        <v>92.11</v>
+      </c>
+      <c r="K58">
+        <v>71.97</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1734,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>32.43</v>
       </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1748,13 +1826,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D60">
         <v>35.36</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1762,13 +1840,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>36.09</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1776,13 +1854,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>39.12</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1790,13 +1868,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D63">
         <v>42.3</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1804,7 +1882,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64">
         <v>144.86</v>
@@ -1816,13 +1894,13 @@
         <v>113.08</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J64">
-        <v>110.07</v>
+        <v>93.27</v>
       </c>
       <c r="K64">
-        <v>77.09</v>
+        <v>72.31</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1830,25 +1908,25 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C65">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D65">
         <v>34.59</v>
       </c>
       <c r="E65">
-        <v>98.83</v>
+        <v>103.41</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J65">
-        <v>109.2</v>
+        <v>93.8</v>
       </c>
       <c r="K65">
-        <v>76.86</v>
+        <v>72.44</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1856,13 +1934,25 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C66">
+        <v>106</v>
       </c>
       <c r="D66">
         <v>36.85</v>
       </c>
+      <c r="E66">
+        <v>69.15000000000001</v>
+      </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <v>92.56999999999999</v>
+      </c>
+      <c r="K66">
+        <v>72.08</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1870,13 +1960,25 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>76.86</v>
       </c>
       <c r="D67">
         <v>31.23</v>
       </c>
+      <c r="E67">
+        <v>45.63</v>
+      </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J67">
+        <v>90.34</v>
+      </c>
+      <c r="K67">
+        <v>71.48</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1884,13 +1986,13 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D68">
         <v>32.43</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1898,13 +2000,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D69">
         <v>35.36</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1912,13 +2014,13 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70">
         <v>36.09</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1926,13 +2028,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D71">
         <v>39.12</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1940,13 +2042,13 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D72">
         <v>42.3</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1954,13 +2056,13 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D73">
         <v>44.78</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1968,25 +2070,25 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C74">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D74">
         <v>25.05</v>
       </c>
       <c r="E74">
-        <v>108.38</v>
+        <v>112.95</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J74">
-        <v>109.15</v>
+        <v>91.36</v>
       </c>
       <c r="K74">
-        <v>77.17</v>
+        <v>71.95</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1994,13 +2096,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C75">
+        <v>106</v>
       </c>
       <c r="D75">
         <v>26.03</v>
       </c>
+      <c r="E75">
+        <v>79.97</v>
+      </c>
       <c r="F75" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J75">
+        <v>90.87</v>
+      </c>
+      <c r="K75">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2008,13 +2122,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C76">
+        <v>76.86</v>
       </c>
       <c r="D76">
         <v>24.44</v>
       </c>
+      <c r="E76">
+        <v>52.42</v>
+      </c>
       <c r="F76" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J76">
+        <v>89.27</v>
+      </c>
+      <c r="K76">
+        <v>71.94</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2022,13 +2148,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>25.78</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2036,13 +2162,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D78">
         <v>28.83</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2050,13 +2176,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D79">
         <v>23.36</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2064,195 +2190,371 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D80">
         <v>33.62</v>
       </c>
       <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D81">
         <v>36.6</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D82">
         <v>39.31</v>
       </c>
       <c r="F82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D83">
         <v>45.34</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C84">
+        <v>106</v>
       </c>
       <c r="D84">
         <v>26.03</v>
       </c>
+      <c r="E84">
+        <v>79.97</v>
+      </c>
       <c r="F84" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="J84">
+        <v>88.89</v>
+      </c>
+      <c r="K84">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>76.86</v>
       </c>
       <c r="D85">
         <v>24.44</v>
       </c>
+      <c r="E85">
+        <v>52.42</v>
+      </c>
       <c r="F85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="J85">
+        <v>87.48999999999999</v>
+      </c>
+      <c r="K85">
+        <v>71.93000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86">
         <v>25.78</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D87">
         <v>28.83</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D88">
         <v>23.36</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D89">
         <v>33.62</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D90">
         <v>36.6</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D91">
         <v>39.31</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D92">
         <v>45.34</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D93">
         <v>52.14</v>
       </c>
       <c r="F93" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94">
+        <v>76.86</v>
+      </c>
+      <c r="D94">
+        <v>24.44</v>
+      </c>
+      <c r="E94">
+        <v>52.42</v>
+      </c>
+      <c r="F94" t="s">
+        <v>63</v>
+      </c>
+      <c r="J94">
+        <v>86.19</v>
+      </c>
+      <c r="K94">
+        <v>71.79000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95">
+        <v>25.78</v>
+      </c>
+      <c r="F95" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96">
+        <v>28.83</v>
+      </c>
+      <c r="F96" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97">
+        <v>23.36</v>
+      </c>
+      <c r="F97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>33.62</v>
+      </c>
+      <c r="F98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>36.6</v>
+      </c>
+      <c r="F99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>39.31</v>
+      </c>
+      <c r="F100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>45.34</v>
+      </c>
+      <c r="F101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102" t="s">
         <v>61</v>
+      </c>
+      <c r="D102">
+        <v>52.42</v>
+      </c>
+      <c r="F102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103">
+        <v>52.92</v>
+      </c>
+      <c r="F103" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>24 May -- 30 May 2020</t>
   </si>
   <si>
@@ -203,6 +206,12 @@
   </si>
   <si>
     <t>11 Apr -- 17 Apr 2021</t>
+  </si>
+  <si>
+    <t>18 Apr -- 24 Apr 2021</t>
+  </si>
+  <si>
+    <t>25 Apr -- 01 May 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>99</v>
@@ -621,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.95</v>
@@ -638,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>98.70999999999999</v>
@@ -650,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>47.57</v>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>40.43</v>
@@ -690,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>15.71</v>
@@ -710,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>22.29</v>
@@ -730,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>12.29</v>
@@ -750,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>10.57</v>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>5.29</v>
@@ -790,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>8.140000000000001</v>
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>5.43</v>
@@ -830,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>6.86</v>
@@ -850,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>6.43</v>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>6.29</v>
@@ -890,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>4.43</v>
@@ -910,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -930,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -950,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>7.29</v>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -990,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>24.71</v>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>17.29</v>
@@ -1030,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>26.71</v>
@@ -1050,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>31.14</v>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>51.43</v>
@@ -1090,7 +1099,7 @@
         <v>17.55</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>57.14</v>
@@ -1110,7 +1119,7 @@
         <v>45.63</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>72.56999999999999</v>
@@ -1130,7 +1139,7 @@
         <v>57.37</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>76.86</v>
@@ -1150,7 +1159,7 @@
         <v>65.42</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>87.70999999999999</v>
@@ -1170,7 +1179,7 @@
         <v>76.61</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>108.57</v>
@@ -1190,7 +1199,7 @@
         <v>88.37</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>114.86</v>
@@ -1210,7 +1219,7 @@
         <v>100.14</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>94.70999999999999</v>
@@ -1230,7 +1239,7 @@
         <v>78.29000000000001</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>124.71</v>
@@ -1250,7 +1259,7 @@
         <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>152.86</v>
@@ -1270,7 +1279,7 @@
         <v>121.45</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J34">
         <v>121.45</v>
@@ -1284,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>142</v>
@@ -1296,7 +1305,7 @@
         <v>109.7</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J35">
         <v>115.57</v>
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>144.86</v>
@@ -1322,7 +1331,7 @@
         <v>113.08</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J36">
         <v>114.74</v>
@@ -1336,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>138</v>
@@ -1348,7 +1357,7 @@
         <v>103.41</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J37">
         <v>111.91</v>
@@ -1362,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>106</v>
@@ -1374,7 +1383,7 @@
         <v>69.15000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>103.36</v>
@@ -1388,7 +1397,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>76.86</v>
@@ -1400,7 +1409,7 @@
         <v>45.63</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J39">
         <v>93.73999999999999</v>
@@ -1414,13 +1423,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>56.14</v>
       </c>
       <c r="D40">
         <v>32.43</v>
       </c>
+      <c r="E40">
+        <v>23.71</v>
+      </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J40">
+        <v>83.73</v>
+      </c>
+      <c r="K40">
+        <v>68.08</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1428,13 +1449,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>35.36</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1442,13 +1463,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>36.09</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1456,13 +1477,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>39.12</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1470,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44">
         <v>152.86</v>
@@ -1482,13 +1503,13 @@
         <v>121.45</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J44">
-        <v>97.69</v>
+        <v>88.45</v>
       </c>
       <c r="K44">
-        <v>73.39</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1496,7 +1517,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45">
         <v>142</v>
@@ -1508,13 +1529,13 @@
         <v>109.7</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J45">
-        <v>99.2</v>
+        <v>90.81</v>
       </c>
       <c r="K45">
-        <v>73.88</v>
+        <v>70.36</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1522,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>144.86</v>
@@ -1534,13 +1555,13 @@
         <v>113.08</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J46">
-        <v>100.74</v>
+        <v>93.03</v>
       </c>
       <c r="K46">
-        <v>74.34</v>
+        <v>71.13</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1548,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>138</v>
@@ -1560,13 +1581,13 @@
         <v>103.41</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J47">
-        <v>101</v>
+        <v>93.98</v>
       </c>
       <c r="K47">
-        <v>74.40000000000001</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1574,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>106</v>
@@ -1586,13 +1607,13 @@
         <v>69.15000000000001</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J48">
-        <v>98.11</v>
+        <v>91.91</v>
       </c>
       <c r="K48">
-        <v>73.56999999999999</v>
+        <v>70.95999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1600,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
         <v>76.86</v>
@@ -1612,13 +1633,13 @@
         <v>45.63</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J49">
-        <v>93.73999999999999</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="K49">
-        <v>72.38</v>
+        <v>70.06</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1626,13 +1647,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>56.14</v>
       </c>
       <c r="D50">
         <v>32.43</v>
       </c>
+      <c r="E50">
+        <v>23.71</v>
+      </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J50">
+        <v>83.73</v>
+      </c>
+      <c r="K50">
+        <v>68.08</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1640,13 +1673,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>35.36</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1654,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>36.09</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1668,13 +1701,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>39.12</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1682,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54">
         <v>142</v>
@@ -1694,13 +1727,13 @@
         <v>109.7</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J54">
-        <v>94.95999999999999</v>
+        <v>85.45999999999999</v>
       </c>
       <c r="K54">
-        <v>72.76000000000001</v>
+        <v>68.69</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1708,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55">
         <v>144.86</v>
@@ -1720,13 +1753,13 @@
         <v>113.08</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J55">
-        <v>96.26000000000001</v>
+        <v>87.19</v>
       </c>
       <c r="K55">
-        <v>73.14</v>
+        <v>69.27</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1734,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>138</v>
@@ -1746,13 +1779,13 @@
         <v>103.41</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J56">
-        <v>96.73</v>
+        <v>88.14</v>
       </c>
       <c r="K56">
-        <v>73.26000000000001</v>
+        <v>69.61</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1760,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>106</v>
@@ -1772,13 +1805,13 @@
         <v>69.15000000000001</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J57">
-        <v>95.01000000000001</v>
+        <v>87.09</v>
       </c>
       <c r="K57">
-        <v>72.76000000000001</v>
+        <v>69.36</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1786,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>76.86</v>
@@ -1798,13 +1831,13 @@
         <v>45.63</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J58">
-        <v>92.11</v>
+        <v>84.91</v>
       </c>
       <c r="K58">
-        <v>71.97</v>
+        <v>68.84</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1812,13 +1845,25 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <v>56.14</v>
       </c>
       <c r="D59">
         <v>32.43</v>
       </c>
+      <c r="E59">
+        <v>23.71</v>
+      </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J59">
+        <v>81.84999999999999</v>
+      </c>
+      <c r="K59">
+        <v>67.51000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1826,13 +1871,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>35.36</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1840,13 +1885,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>36.09</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1854,13 +1899,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>39.12</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1868,13 +1913,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>42.3</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1882,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>144.86</v>
@@ -1894,13 +1939,13 @@
         <v>113.08</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J64">
-        <v>93.27</v>
+        <v>83.33</v>
       </c>
       <c r="K64">
-        <v>72.31</v>
+        <v>68.01000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1908,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>138</v>
@@ -1920,13 +1965,13 @@
         <v>103.41</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J65">
-        <v>93.8</v>
+        <v>84.25</v>
       </c>
       <c r="K65">
-        <v>72.44</v>
+        <v>68.33</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1934,7 +1979,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66">
         <v>106</v>
@@ -1946,13 +1991,13 @@
         <v>69.15000000000001</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J66">
-        <v>92.56999999999999</v>
+        <v>83.59</v>
       </c>
       <c r="K66">
-        <v>72.08</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1960,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67">
         <v>76.86</v>
@@ -1972,13 +2017,13 @@
         <v>45.63</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J67">
-        <v>90.34</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="K67">
-        <v>71.48</v>
+        <v>67.81999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1986,13 +2031,25 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <v>56.14</v>
       </c>
       <c r="D68">
         <v>32.43</v>
       </c>
+      <c r="E68">
+        <v>23.71</v>
+      </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J68">
+        <v>79.68000000000001</v>
+      </c>
+      <c r="K68">
+        <v>66.8</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2000,13 +2057,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69">
         <v>35.36</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2014,13 +2071,13 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D70">
         <v>36.09</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2028,13 +2085,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D71">
         <v>39.12</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2042,13 +2099,13 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72">
         <v>42.3</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2056,13 +2113,13 @@
         <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D73">
         <v>44.78</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2070,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C74">
         <v>138</v>
@@ -2082,13 +2139,13 @@
         <v>112.95</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J74">
-        <v>91.36</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="K74">
-        <v>71.95</v>
+        <v>67.38</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2096,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C75">
         <v>106</v>
@@ -2108,13 +2165,13 @@
         <v>79.97</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J75">
-        <v>90.87</v>
+        <v>80.92</v>
       </c>
       <c r="K75">
-        <v>72.09999999999999</v>
+        <v>67.68000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2122,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76">
         <v>76.86</v>
@@ -2134,13 +2191,13 @@
         <v>52.42</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J76">
-        <v>89.27</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K76">
-        <v>71.94</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2148,13 +2205,25 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>56.14</v>
       </c>
       <c r="D77">
         <v>25.78</v>
       </c>
+      <c r="E77">
+        <v>30.36</v>
+      </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J77">
+        <v>78.19</v>
+      </c>
+      <c r="K77">
+        <v>67.23</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2162,13 +2231,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D78">
         <v>28.83</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2176,13 +2245,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D79">
         <v>23.36</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2190,13 +2259,13 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80">
         <v>33.62</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2204,13 +2273,13 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D81">
         <v>36.6</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2218,13 +2287,13 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82">
         <v>39.31</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2232,13 +2301,13 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>45.34</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2246,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C84">
         <v>106</v>
@@ -2258,13 +2327,13 @@
         <v>79.97</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J84">
-        <v>88.89</v>
+        <v>78.25</v>
       </c>
       <c r="K84">
-        <v>72.08</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2272,7 +2341,7 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>76.86</v>
@@ -2284,13 +2353,13 @@
         <v>52.42</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J85">
-        <v>87.48999999999999</v>
+        <v>77.42</v>
       </c>
       <c r="K85">
-        <v>71.93000000000001</v>
+        <v>67.52</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2298,13 +2367,25 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C86">
+        <v>56.14</v>
       </c>
       <c r="D86">
         <v>25.78</v>
       </c>
+      <c r="E86">
+        <v>30.36</v>
+      </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J86">
+        <v>75.95</v>
+      </c>
+      <c r="K86">
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2312,13 +2393,13 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D87">
         <v>28.83</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2326,13 +2407,13 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D88">
         <v>23.36</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2340,13 +2421,13 @@
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D89">
         <v>33.62</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2354,13 +2435,13 @@
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D90">
         <v>36.6</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2368,13 +2449,13 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91">
         <v>39.31</v>
       </c>
       <c r="F91" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2382,13 +2463,13 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D92">
         <v>45.34</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2396,13 +2477,13 @@
         <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D93">
         <v>52.14</v>
       </c>
       <c r="F93" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2410,7 +2491,7 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94">
         <v>76.86</v>
@@ -2422,13 +2503,13 @@
         <v>52.42</v>
       </c>
       <c r="F94" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J94">
-        <v>86.19</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="K94">
-        <v>71.79000000000001</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2436,13 +2517,25 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <v>56.14</v>
       </c>
       <c r="D95">
         <v>25.78</v>
       </c>
+      <c r="E95">
+        <v>30.36</v>
+      </c>
       <c r="F95" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="J95">
+        <v>73.92</v>
+      </c>
+      <c r="K95">
+        <v>66.75</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2450,13 +2543,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D96">
         <v>28.83</v>
       </c>
       <c r="F96" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2464,13 +2557,13 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D97">
         <v>23.36</v>
       </c>
       <c r="F97" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2478,13 +2571,13 @@
         <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <v>33.62</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2492,13 +2585,13 @@
         <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D99">
         <v>36.6</v>
       </c>
       <c r="F99" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2506,13 +2599,13 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D100">
         <v>39.31</v>
       </c>
       <c r="F100" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2520,13 +2613,13 @@
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D101">
         <v>45.34</v>
       </c>
       <c r="F101" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2534,13 +2627,13 @@
         <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D102">
         <v>52.42</v>
       </c>
       <c r="F102" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2548,13 +2641,153 @@
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D103">
         <v>52.92</v>
       </c>
       <c r="F103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104">
+        <v>28.83</v>
+      </c>
+      <c r="F104" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105">
+        <v>23.36</v>
+      </c>
+      <c r="F105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106">
+        <v>33.62</v>
+      </c>
+      <c r="F106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107">
+        <v>36.6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108">
+        <v>39.31</v>
+      </c>
+      <c r="F108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>61</v>
+      </c>
+      <c r="D109">
+        <v>45.34</v>
+      </c>
+      <c r="F109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110">
+        <v>52.42</v>
+      </c>
+      <c r="F110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
         <v>63</v>
+      </c>
+      <c r="D111">
+        <v>52.92</v>
+      </c>
+      <c r="F111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112">
+        <v>55.18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113">
+        <v>53.51</v>
+      </c>
+      <c r="F113" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
